--- a/data/IndustryStackedLine.xlsx
+++ b/data/IndustryStackedLine.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd3ae860ae309e9/MONASH U/4th YEAR SEM 2/FIT3179/Data Visualization Assignments/Data Visualization II/Job/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dd3ae860ae309e9/MONASH U/4th YEAR SEM 2/FIT3179/Data Visualization Assignments/Data Visualization II/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5A84F55-F264-4A67-9E07-B0BE169CF2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{E5A84F55-F264-4A67-9E07-B0BE169CF2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5398918F-465D-48B0-B7A8-256FF9226D17}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{1E3E41A7-6079-42BE-B5F4-517A36DFB26D}"/>
   </bookViews>
   <sheets>
     <sheet name="Industry Stacked Line" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Industry Stacked Line'!$A$1:$C$109</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -105,8 +108,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -153,8 +157,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +174,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,21 +497,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117E4E1B-6BC5-4254-A66F-377617391D6D}">
-  <dimension ref="A1:G109"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.1328125" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,864 +524,824 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
-        <v>11.7</v>
+        <v>42.5</v>
       </c>
       <c r="C2" s="4">
         <v>45047</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>22.6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>45047</v>
+        <v>41.4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45139</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C4" s="4">
-        <v>45047</v>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45231</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>33.1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>45047</v>
+        <v>35.1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45323</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>15.3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>45047</v>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45413</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="C7" s="4">
-        <v>45047</v>
+        <v>31.7</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45505</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>42.5</v>
+        <v>37.5</v>
       </c>
       <c r="C8" s="4">
         <v>45047</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45047</v>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45139</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="C10" s="4">
-        <v>45047</v>
+        <v>31.5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45231</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>45047</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45323</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="C12" s="4">
-        <v>45047</v>
+        <v>26</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45413</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3">
-        <v>44.7</v>
-      </c>
-      <c r="C13" s="4">
-        <v>45047</v>
+        <v>25.4</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45505</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
-        <v>37.5</v>
+        <v>6.5</v>
       </c>
       <c r="C14" s="4">
         <v>45047</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>22.9</v>
-      </c>
-      <c r="C15" s="4">
-        <v>45047</v>
+        <v>7.3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45139</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
-        <v>15.9</v>
-      </c>
-      <c r="C16" s="4">
-        <v>45047</v>
+        <v>7.3</v>
+      </c>
+      <c r="C16" s="5">
+        <v>45231</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="C17" s="4">
-        <v>45047</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C17" s="5">
+        <v>45323</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="C18" s="4">
-        <v>45047</v>
+        <v>4.8</v>
+      </c>
+      <c r="C18" s="5">
+        <v>45413</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C19" s="4">
-        <v>45047</v>
+        <v>5.2</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45505</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A20" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="C20" s="5">
-        <v>45139</v>
+        <v>33.1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>45047</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.75">
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.75">
       <c r="A21" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3">
-        <v>25.1</v>
+        <v>28.8</v>
       </c>
       <c r="C21" s="5">
         <v>45139</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3">
-        <v>4.9000000000000004</v>
+        <v>28.5</v>
       </c>
       <c r="C22" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="3">
-        <v>28.8</v>
+        <v>27.9</v>
       </c>
       <c r="C23" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="C25" s="5">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="C26" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="3">
         <v>15.5</v>
-      </c>
-      <c r="C24" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="3">
-        <v>38.5</v>
-      </c>
-      <c r="C25" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="3">
-        <v>41.4</v>
-      </c>
-      <c r="C26" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3">
-        <v>12.1</v>
       </c>
       <c r="C27" s="5">
         <v>45139</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3">
-        <v>3.5</v>
+        <v>13.6</v>
       </c>
       <c r="C28" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B29" s="3">
-        <v>11.3</v>
+        <v>15.6</v>
       </c>
       <c r="C29" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B30" s="3">
-        <v>5.5</v>
+        <v>12.3</v>
       </c>
       <c r="C30" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3">
-        <v>42.5</v>
+        <v>12.1</v>
       </c>
       <c r="C31" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.75">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B32" s="3">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="C32" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.75">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C32" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B33" s="3">
-        <v>23.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C33" s="5">
         <v>45139</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A34" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B34" s="3">
-        <v>15.5</v>
+        <v>4.8</v>
       </c>
       <c r="C34" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A35" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B35" s="3">
-        <v>68.099999999999994</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C35" s="5">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A36" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B36" s="3">
-        <v>7.3</v>
+        <v>4.5</v>
       </c>
       <c r="C36" s="5">
-        <v>45139</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A37" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B37" s="3">
-        <v>14.2</v>
+        <v>4.3</v>
       </c>
       <c r="C37" s="5">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="C39" s="5">
         <v>45139</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="C38" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="3">
-        <v>23.4</v>
-      </c>
-      <c r="C39" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A40" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B40" s="3">
-        <v>4.8</v>
+        <v>10</v>
       </c>
       <c r="C40" s="5">
         <v>45231</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A41" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B41" s="3">
-        <v>28.5</v>
+        <v>11.7</v>
       </c>
       <c r="C41" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A42" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B42" s="3">
-        <v>14</v>
+        <v>10.9</v>
       </c>
       <c r="C42" s="5">
-        <v>45231</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A43" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B43" s="3">
-        <v>37.200000000000003</v>
+        <v>11.1</v>
       </c>
       <c r="C43" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A44" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B44" s="3">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="C44" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.75">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C44" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A45" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B45" s="3">
-        <v>11.5</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="C45" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A46" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B46" s="3">
-        <v>3.4</v>
+        <v>67.5</v>
       </c>
       <c r="C46" s="5">
         <v>45231</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A47" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B47" s="3">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C47" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A48" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B48" s="3">
-        <v>4.8</v>
+        <v>61.8</v>
       </c>
       <c r="C48" s="5">
-        <v>45231</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A49" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B49" s="3">
-        <v>41.4</v>
+        <v>60.9</v>
       </c>
       <c r="C49" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A50" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B50" s="3">
-        <v>31.5</v>
-      </c>
-      <c r="C50" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.75">
+        <v>3.8</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A51" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B51" s="3">
-        <v>23.8</v>
+        <v>3.5</v>
       </c>
       <c r="C51" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A52" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B52" s="3">
-        <v>13.6</v>
+        <v>3.4</v>
       </c>
       <c r="C52" s="5">
         <v>45231</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A53" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B53" s="3">
-        <v>67.5</v>
+        <v>3.6</v>
       </c>
       <c r="C53" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A54" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B54" s="3">
-        <v>7.3</v>
+        <v>3.5</v>
       </c>
       <c r="C54" s="5">
-        <v>45231</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A55" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B55" s="3">
-        <v>13.5</v>
+        <v>3.4</v>
       </c>
       <c r="C55" s="5">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A56" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="C56" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.75">
+        <v>22.6</v>
+      </c>
+      <c r="C56" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A57" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B57" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="C57" s="5">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3">
         <v>23.3</v>
-      </c>
-      <c r="C57" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C58" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B59" s="3">
-        <v>27.9</v>
       </c>
       <c r="C59" s="5">
         <v>45323</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A60" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B60" s="3">
-        <v>16.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C60" s="5">
-        <v>45323</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A61" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B61" s="3">
-        <v>32.1</v>
+        <v>14.7</v>
       </c>
       <c r="C61" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A62" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B62" s="3">
-        <v>35.1</v>
-      </c>
-      <c r="C62" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.75">
+        <v>11.7</v>
+      </c>
+      <c r="C62" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A63" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B63" s="3">
-        <v>10.1</v>
+        <v>11.4</v>
       </c>
       <c r="C63" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A64" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B64" s="3">
-        <v>3.6</v>
+        <v>11.5</v>
       </c>
       <c r="C64" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A65" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B65" s="3">
-        <v>11.7</v>
+        <v>10.7</v>
       </c>
       <c r="C65" s="5">
         <v>45323</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A66" s="2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
       <c r="C66" s="5">
-        <v>45323</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A67" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>34.6</v>
+        <v>8.4</v>
       </c>
       <c r="C67" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A68" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B68" s="3">
-        <v>30</v>
-      </c>
-      <c r="C68" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.75">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C68" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A69" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B69" s="3">
-        <v>19</v>
+        <v>14.2</v>
       </c>
       <c r="C69" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A70" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B70" s="3">
-        <v>15.6</v>
+        <v>13.5</v>
       </c>
       <c r="C70" s="5">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A71" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B71" s="3">
-        <v>65</v>
+        <v>12.6</v>
       </c>
       <c r="C71" s="5">
         <v>45323</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A72" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B72" s="3">
-        <v>4.9000000000000004</v>
+        <v>13.6</v>
       </c>
       <c r="C72" s="5">
-        <v>45323</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.75">
@@ -1380,62 +1349,62 @@
         <v>20</v>
       </c>
       <c r="B73" s="3">
-        <v>12.6</v>
+        <v>14.1</v>
       </c>
       <c r="C73" s="5">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44.7</v>
+      </c>
+      <c r="C74" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="3">
+        <v>42.5</v>
+      </c>
+      <c r="C75" s="5">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="3">
+        <v>41.4</v>
+      </c>
+      <c r="C76" s="5">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="3">
+        <v>34.6</v>
+      </c>
+      <c r="C77" s="5">
         <v>45323</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A74" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="C74" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C75" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="C76" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="3">
-        <v>24.9</v>
-      </c>
-      <c r="C77" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A78" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B78" s="3">
-        <v>11.2</v>
+        <v>40.1</v>
       </c>
       <c r="C78" s="5">
         <v>45413</v>
@@ -1443,65 +1412,65 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A79" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B79" s="3">
-        <v>28.4</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="C79" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A80" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B80" s="3">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="C80" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.75">
+        <v>22.9</v>
+      </c>
+      <c r="C80" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A81" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B81" s="3">
-        <v>8.6999999999999993</v>
+        <v>23.6</v>
       </c>
       <c r="C81" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A82" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B82" s="3">
-        <v>3.5</v>
+        <v>23.8</v>
       </c>
       <c r="C82" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A83" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B83" s="3">
-        <v>10.9</v>
+        <v>19</v>
       </c>
       <c r="C83" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A84" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B84" s="3">
-        <v>5.7</v>
+        <v>21.9</v>
       </c>
       <c r="C84" s="5">
         <v>45413</v>
@@ -1509,65 +1478,65 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A85" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B85" s="3">
-        <v>40.1</v>
+        <v>21</v>
       </c>
       <c r="C85" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A86" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B86" s="3">
-        <v>26</v>
-      </c>
-      <c r="C86" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.75">
+        <v>5.5</v>
+      </c>
+      <c r="C86" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A87" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B87" s="3">
-        <v>21.9</v>
+        <v>5.5</v>
       </c>
       <c r="C87" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A88" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B88" s="3">
-        <v>12.3</v>
+        <v>4.8</v>
       </c>
       <c r="C88" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A89" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B89" s="3">
-        <v>61.8</v>
+        <v>5.8</v>
       </c>
       <c r="C89" s="5">
-        <v>45413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A90" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B90" s="3">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="C90" s="5">
         <v>45413</v>
@@ -1575,68 +1544,68 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A91" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B91" s="3">
-        <v>13.6</v>
+        <v>5.5</v>
       </c>
       <c r="C91" s="5">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="3">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C92" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="3">
+        <v>38.5</v>
+      </c>
+      <c r="C93" s="5">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="3">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="C94" s="5">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="C95" s="5">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
+      <c r="A96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="C96" s="5">
         <v>45413</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="C92" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A93" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="3">
-        <v>14.7</v>
-      </c>
-      <c r="C93" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="C94" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B95" s="3">
-        <v>25.1</v>
-      </c>
-      <c r="C95" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="C96" s="5">
-        <v>45505</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.75">
@@ -1650,139 +1619,149 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B98" s="3">
-        <v>31.7</v>
-      </c>
-      <c r="C98" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.75">
+        <v>13.4</v>
+      </c>
+      <c r="C98" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B99" s="3">
-        <v>9.9</v>
+        <v>12.1</v>
       </c>
       <c r="C99" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A100" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B100" s="3">
-        <v>3.4</v>
+        <v>11.5</v>
       </c>
       <c r="C100" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A101" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B101" s="3">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="C101" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A102" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B102" s="3">
-        <v>5.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C102" s="5">
-        <v>45505</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A103" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B103" s="3">
-        <v>38.700000000000003</v>
+        <v>9.9</v>
       </c>
       <c r="C103" s="5">
         <v>45505</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A104" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B104" s="3">
-        <v>25.4</v>
-      </c>
-      <c r="C104" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.75">
+        <v>15.3</v>
+      </c>
+      <c r="C104" s="4">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A105" s="2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B105" s="3">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="C105" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A106" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B106" s="3">
-        <v>12.1</v>
+        <v>14</v>
       </c>
       <c r="C106" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A107" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B107" s="3">
-        <v>60.9</v>
+        <v>16.2</v>
       </c>
       <c r="C107" s="5">
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.75">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.75">
       <c r="A108" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B108" s="3">
-        <v>5.2</v>
+        <v>11.2</v>
       </c>
       <c r="C108" s="5">
-        <v>45505</v>
+        <v>45413</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A109" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B109" s="3">
-        <v>14.1</v>
+        <v>11.9</v>
       </c>
       <c r="C109" s="5">
         <v>45505</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C109" xr:uid="{117E4E1B-6BC5-4254-A66F-377617391D6D}">
+    <filterColumn colId="2">
+      <filters>
+        <dateGroupItem year="2024" month="8" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C109">
+    <sortCondition ref="C1:C109"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
